--- a/GWL April_Mei 2024.xlsx
+++ b/GWL April_Mei 2024.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernst\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74463E4-8C71-4983-A65A-0B05E62F0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289541E-75EE-4E92-A395-A2698C65C51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{AC33DD8B-1169-4DE6-8EC1-179C9B1E83F1}"/>
+    <workbookView xWindow="1860" yWindow="3615" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{AC33DD8B-1169-4DE6-8EC1-179C9B1E83F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Maart 2024" sheetId="1" r:id="rId1"/>
-    <sheet name="April 2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="April 2024" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Dag</t>
   </si>
@@ -85,6 +86,9 @@
   </si>
   <si>
     <t>Totaal te verrekenen mei</t>
+  </si>
+  <si>
+    <t>Creating a new sheet for testing</t>
   </si>
 </sst>
 </file>
@@ -596,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B6380F-3671-41D4-BF94-B0EFB8D9CC13}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1302,6 +1306,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BB6740-F324-496A-96FF-77A3F7B62C64}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B6D7C5-769F-49CF-B8A2-F911500E3666}">
   <dimension ref="A1:I41"/>
   <sheetViews>

--- a/GWL April_Mei 2024.xlsx
+++ b/GWL April_Mei 2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ExcelProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernst\Documents\GitHub\ExcelTestPrjct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289541E-75EE-4E92-A395-A2698C65C51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BF7EB8-2BF2-4442-ADC1-64DA46A7B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="3615" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{AC33DD8B-1169-4DE6-8EC1-179C9B1E83F1}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{AC33DD8B-1169-4DE6-8EC1-179C9B1E83F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Maart 2024" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Dag</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Creating a new sheet for testing</t>
+  </si>
+  <si>
+    <t>I am editing the Sheet1 in Recon#1 branch</t>
   </si>
 </sst>
 </file>
@@ -602,15 +605,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -627,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45352</v>
       </c>
@@ -645,7 +648,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45353</v>
       </c>
@@ -663,7 +666,7 @@
         <v>10.559999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45354</v>
       </c>
@@ -681,7 +684,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45355</v>
       </c>
@@ -699,7 +702,7 @@
         <v>10.010000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45356</v>
       </c>
@@ -717,7 +720,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45357</v>
       </c>
@@ -736,7 +739,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45358</v>
       </c>
@@ -754,7 +757,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45359</v>
       </c>
@@ -772,7 +775,7 @@
         <v>12.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45360</v>
       </c>
@@ -790,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45361</v>
       </c>
@@ -808,7 +811,7 @@
         <v>9.41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>45362</v>
       </c>
@@ -826,7 +829,7 @@
         <v>11.74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45363</v>
       </c>
@@ -844,7 +847,7 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45364</v>
       </c>
@@ -862,7 +865,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45365</v>
       </c>
@@ -880,7 +883,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>45366</v>
       </c>
@@ -898,7 +901,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>45367</v>
       </c>
@@ -916,7 +919,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>45368</v>
       </c>
@@ -934,7 +937,7 @@
         <v>10.27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45369</v>
       </c>
@@ -952,7 +955,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>45370</v>
       </c>
@@ -970,7 +973,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>45371</v>
       </c>
@@ -988,7 +991,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45372</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>8.9699999999999989</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>45373</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>45374</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>11.510000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45375</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>45376</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>45377</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>45378</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45379</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45380</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45381</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>45382</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>8.759999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>3</v>
       </c>
@@ -1198,8 +1201,8 @@
         <v>304.54999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1215,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1228,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1241,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1253,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1266,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15" t="s">
@@ -1275,7 +1278,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="19" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1291,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
   </sheetData>
@@ -1307,15 +1310,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BB6740-F324-496A-96FF-77A3F7B62C64}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1329,15 +1339,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45383</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45384</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45385</v>
       </c>
@@ -1408,7 +1418,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45386</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>7.7200000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45387</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45388</v>
       </c>
@@ -1463,7 +1473,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45389</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45390</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45391</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>8.9200000000000017</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45392</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>45393</v>
       </c>
@@ -1553,7 +1563,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45394</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45395</v>
       </c>
@@ -1589,7 +1599,7 @@
         <v>6.1300000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45396</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>7.1000000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>45397</v>
       </c>
@@ -1625,7 +1635,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>45398</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>45399</v>
       </c>
@@ -1661,7 +1671,7 @@
         <v>14.510000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45400</v>
       </c>
@@ -1679,7 +1689,7 @@
         <v>10.290000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>45401</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>45402</v>
       </c>
@@ -1715,7 +1725,7 @@
         <v>11.170000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>45403</v>
       </c>
@@ -1733,7 +1743,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>45404</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>11.740000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>45405</v>
       </c>
@@ -1769,7 +1779,7 @@
         <v>11.379999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45406</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>10.73</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>45407</v>
       </c>
@@ -1805,7 +1815,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>45408</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>45409</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45410</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>45411</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45412</v>
       </c>
@@ -1895,7 +1905,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +1917,8 @@
         <v>270.44</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
         <v>5</v>
       </c>
@@ -1921,7 +1931,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>6</v>
       </c>
@@ -1934,7 +1944,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>12</v>
       </c>
@@ -1947,7 +1957,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
@@ -1959,7 +1969,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>14</v>
       </c>
@@ -1972,7 +1982,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
@@ -1985,7 +1995,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="19" t="s">
         <v>15</v>
       </c>
@@ -1998,7 +2008,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
   </sheetData>

--- a/GWL April_Mei 2024.xlsx
+++ b/GWL April_Mei 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernst\Documents\GitHub\ExcelTestPrjct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BF7EB8-2BF2-4442-ADC1-64DA46A7B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5CFCAD-884F-4C2A-81D1-8301CBD8F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{AC33DD8B-1169-4DE6-8EC1-179C9B1E83F1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Dag</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>I am editing the Sheet1 in Recon#1 branch</t>
+  </si>
+  <si>
+    <t>I am editing sheet 2 for Recon#2 branch</t>
   </si>
 </sst>
 </file>
@@ -1310,13 +1313,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BB6740-F324-496A-96FF-77A3F7B62C64}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1326,6 +1332,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/GWL April_Mei 2024.xlsx
+++ b/GWL April_Mei 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernst\Documents\GitHub\ExcelTestPrjct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BF7EB8-2BF2-4442-ADC1-64DA46A7B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0672E281-1684-4997-B981-6DFC160C096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{AC33DD8B-1169-4DE6-8EC1-179C9B1E83F1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Dag</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>I am editing the Sheet1 in Recon#1 branch</t>
+  </si>
+  <si>
+    <t>Editing sheet 2 in Recon2 branch</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BB6740-F324-496A-96FF-77A3F7B62C64}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,6 +1329,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
